--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2541796.29107684</v>
+        <v>2541408.857839788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>250234.0548933627</v>
+        <v>248264.7300148717</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8493567.874952268</v>
+        <v>8493956.21366881</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>122.2268958568576</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -677,7 +677,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>302.8937350689266</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>6.315344227523287</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>221.8628349195269</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.60550845803644</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>57.37407042976167</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.42999763475405</v>
+        <v>163.0846197654411</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -987,7 +987,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>6.278742015980576</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>214.370966941699</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.98390611024952</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>39.67076193273354</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>193.7560238750505</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>343.257691985916</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>88.12736093321287</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>49.0288733133614</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.0633291268696</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>149.7721497581295</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146303</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>255.66555961684</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
@@ -1382,13 +1382,13 @@
         <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>66.69876728227803</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774087</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>220.1793158548094</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>208.5732062164882</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>110.6106610356147</v>
+        <v>116.1837968985006</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932732</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472779</v>
+        <v>54.4896443347278</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230619</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808564</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627195</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761815</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031019</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355686</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214061</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1607,25 +1607,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>154.400258013363</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774086</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>55.94308995940563</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X14" t="n">
         <v>264.7796735655129</v>
@@ -1695,16 +1695,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>112.080406328435</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>4.400426817853927</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.6159961864838</v>
+        <v>219.014077319547</v>
       </c>
       <c r="C17" t="n">
-        <v>206.6273131441655</v>
+        <v>207.0253942772287</v>
       </c>
       <c r="D17" t="n">
-        <v>197.6086171886935</v>
+        <v>198.0066983217567</v>
       </c>
       <c r="E17" t="n">
-        <v>219.350754758599</v>
+        <v>219.7488358916623</v>
       </c>
       <c r="F17" t="n">
-        <v>238.5225708465762</v>
+        <v>238.9206519796394</v>
       </c>
       <c r="G17" t="n">
-        <v>240.4558387439987</v>
+        <v>240.8539198770619</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0059537223086</v>
+        <v>158.4040348553719</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.86957767959441</v>
+        <v>14.26765881265763</v>
       </c>
       <c r="T17" t="n">
-        <v>50.62824886994377</v>
+        <v>51.02633000300699</v>
       </c>
       <c r="U17" t="n">
-        <v>80.84937498679074</v>
+        <v>81.24745611985395</v>
       </c>
       <c r="V17" t="n">
-        <v>162.1223734266629</v>
+        <v>162.5204545597261</v>
       </c>
       <c r="W17" t="n">
-        <v>187.4224729046198</v>
+        <v>187.820554037683</v>
       </c>
       <c r="X17" t="n">
-        <v>206.7227311373664</v>
+        <v>207.1208122704296</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.1193289335652</v>
+        <v>218.5174100666284</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.28719629253332</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>124.2912761025081</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.23270706118086</v>
+        <v>10.63078819424408</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.08555703399415</v>
+        <v>40.48363816705736</v>
       </c>
       <c r="T19" t="n">
-        <v>59.36005571612279</v>
+        <v>59.758136849186</v>
       </c>
       <c r="U19" t="n">
-        <v>112.831229179436</v>
+        <v>113.2293103124992</v>
       </c>
       <c r="V19" t="n">
-        <v>86.64084346080645</v>
+        <v>87.03892459386967</v>
       </c>
       <c r="W19" t="n">
-        <v>111.8077295314197</v>
+        <v>112.2058106644829</v>
       </c>
       <c r="X19" t="n">
-        <v>57.45283152722283</v>
+        <v>57.85091266028604</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.32769928329051</v>
+        <v>48.72578041635373</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.6159961864838</v>
+        <v>219.0140773195479</v>
       </c>
       <c r="C20" t="n">
-        <v>206.6273131441655</v>
+        <v>207.0253942772287</v>
       </c>
       <c r="D20" t="n">
-        <v>197.6086171886935</v>
+        <v>198.0066983217567</v>
       </c>
       <c r="E20" t="n">
-        <v>219.350754758599</v>
+        <v>219.7488358916623</v>
       </c>
       <c r="F20" t="n">
-        <v>238.5225708465762</v>
+        <v>238.9206519796394</v>
       </c>
       <c r="G20" t="n">
-        <v>240.4558387439987</v>
+        <v>240.8539198770619</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0059537223086</v>
+        <v>158.4040348553719</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.86957767959441</v>
+        <v>14.26765881265763</v>
       </c>
       <c r="T20" t="n">
-        <v>50.62824886994377</v>
+        <v>51.02633000300699</v>
       </c>
       <c r="U20" t="n">
-        <v>80.84937498679074</v>
+        <v>81.24745611985395</v>
       </c>
       <c r="V20" t="n">
-        <v>162.1223734266629</v>
+        <v>162.5204545597261</v>
       </c>
       <c r="W20" t="n">
-        <v>187.4224729046198</v>
+        <v>187.820554037683</v>
       </c>
       <c r="X20" t="n">
-        <v>206.7227311373664</v>
+        <v>207.1208122704296</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.1193289335652</v>
+        <v>218.5174100666284</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>9.973562680740013</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2211,7 +2211,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>92.26020073476069</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
         <v>216.3098444776729</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.23270706118086</v>
+        <v>10.63078819424408</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.08555703399415</v>
+        <v>40.48363816705736</v>
       </c>
       <c r="T22" t="n">
-        <v>59.36005571612279</v>
+        <v>59.758136849186</v>
       </c>
       <c r="U22" t="n">
-        <v>112.831229179436</v>
+        <v>113.2293103124992</v>
       </c>
       <c r="V22" t="n">
-        <v>86.64084346080645</v>
+        <v>87.03892459386967</v>
       </c>
       <c r="W22" t="n">
-        <v>111.8077295314197</v>
+        <v>112.2058106644829</v>
       </c>
       <c r="X22" t="n">
-        <v>57.45283152722283</v>
+        <v>57.85091266028604</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.32769928329051</v>
+        <v>48.72578041635373</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218.6159961864838</v>
+        <v>219.014077319547</v>
       </c>
       <c r="C23" t="n">
-        <v>206.6273131441655</v>
+        <v>207.0253942772287</v>
       </c>
       <c r="D23" t="n">
-        <v>197.6086171886935</v>
+        <v>198.0066983217567</v>
       </c>
       <c r="E23" t="n">
-        <v>219.350754758599</v>
+        <v>219.7488358916623</v>
       </c>
       <c r="F23" t="n">
-        <v>238.5225708465762</v>
+        <v>238.9206519796394</v>
       </c>
       <c r="G23" t="n">
-        <v>240.4558387439987</v>
+        <v>240.8539198770619</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0059537223086</v>
+        <v>158.4040348553719</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.86957767959441</v>
+        <v>14.26765881265763</v>
       </c>
       <c r="T23" t="n">
-        <v>50.62824886994377</v>
+        <v>51.02633000300699</v>
       </c>
       <c r="U23" t="n">
-        <v>80.84937498679074</v>
+        <v>81.24745611985395</v>
       </c>
       <c r="V23" t="n">
-        <v>162.1223734266629</v>
+        <v>162.5204545597261</v>
       </c>
       <c r="W23" t="n">
-        <v>187.4224729046198</v>
+        <v>187.820554037683</v>
       </c>
       <c r="X23" t="n">
-        <v>206.7227311373664</v>
+        <v>207.1208122704296</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.1193289335652</v>
+        <v>218.5174100666284</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>103.5683700875991</v>
       </c>
       <c r="G24" t="n">
         <v>127.4412149769483</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>56.73344005647319</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.23270706118086</v>
+        <v>10.63078819424408</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.08555703399415</v>
+        <v>40.48363816705736</v>
       </c>
       <c r="T25" t="n">
-        <v>59.36005571612279</v>
+        <v>59.758136849186</v>
       </c>
       <c r="U25" t="n">
-        <v>112.831229179436</v>
+        <v>113.2293103124992</v>
       </c>
       <c r="V25" t="n">
-        <v>86.64084346080645</v>
+        <v>87.03892459386967</v>
       </c>
       <c r="W25" t="n">
-        <v>111.8077295314197</v>
+        <v>112.2058106644829</v>
       </c>
       <c r="X25" t="n">
-        <v>57.45283152722283</v>
+        <v>57.85091266028604</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.32769928329051</v>
+        <v>48.72578041635373</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
-        <v>148.3982157435824</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721452</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508323</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655129</v>
+        <v>222.3197058111477</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133612</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>250.4336057791499</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
-        <v>37.23187356352199</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
         <v>138.9063174149372</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133606</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.9956715843949</v>
+        <v>248.367213975254</v>
       </c>
       <c r="C32" t="n">
-        <v>236.0069885420766</v>
+        <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
-        <v>226.9882925866046</v>
+        <v>227.3598349774637</v>
       </c>
       <c r="E32" t="n">
-        <v>248.7304301565101</v>
+        <v>249.1019725473693</v>
       </c>
       <c r="F32" t="n">
-        <v>267.9022462444873</v>
+        <v>268.2737886353464</v>
       </c>
       <c r="G32" t="n">
-        <v>269.8355141419098</v>
+        <v>270.2070565327689</v>
       </c>
       <c r="H32" t="n">
-        <v>187.3856291202197</v>
+        <v>187.7571715110789</v>
       </c>
       <c r="I32" t="n">
-        <v>28.98159426484787</v>
+        <v>29.353136655707</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.2492530775055</v>
+        <v>43.62079546836463</v>
       </c>
       <c r="T32" t="n">
-        <v>80.00792426785486</v>
+        <v>80.37946665871399</v>
       </c>
       <c r="U32" t="n">
-        <v>110.2290503847018</v>
+        <v>110.600592775561</v>
       </c>
       <c r="V32" t="n">
-        <v>191.502048824574</v>
+        <v>191.8735912154331</v>
       </c>
       <c r="W32" t="n">
-        <v>216.8021483025309</v>
+        <v>217.17369069339</v>
       </c>
       <c r="X32" t="n">
-        <v>236.1024065352775</v>
+        <v>236.4739489261366</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.4990043314763</v>
+        <v>247.8705467223354</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>84.37298759326536</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133623</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.61238245909195</v>
+        <v>39.98392484995108</v>
       </c>
       <c r="C34" t="n">
-        <v>25.81237730449243</v>
+        <v>26.18391969535156</v>
       </c>
       <c r="D34" t="n">
-        <v>9.433741702070819</v>
+        <v>9.805284092929952</v>
       </c>
       <c r="E34" t="n">
-        <v>8.381491557850268</v>
+        <v>8.753033948709401</v>
       </c>
       <c r="F34" t="n">
-        <v>8.848415886036577</v>
+        <v>9.21995827689571</v>
       </c>
       <c r="G34" t="n">
-        <v>25.12311860738441</v>
+        <v>25.49466099824355</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67148623007483</v>
+        <v>16.04302862093397</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6535814149041812</v>
+        <v>1.025123805763315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.919131033321491</v>
+        <v>6.290673424180625</v>
       </c>
       <c r="S34" t="n">
-        <v>69.46523243190524</v>
+        <v>69.83677482276437</v>
       </c>
       <c r="T34" t="n">
-        <v>88.73973111403387</v>
+        <v>89.11127350489301</v>
       </c>
       <c r="U34" t="n">
-        <v>142.210904577347</v>
+        <v>142.5824469682062</v>
       </c>
       <c r="V34" t="n">
-        <v>116.0205188587175</v>
+        <v>116.3920612495767</v>
       </c>
       <c r="W34" t="n">
-        <v>141.1874049293308</v>
+        <v>141.5589473201899</v>
       </c>
       <c r="X34" t="n">
-        <v>86.83250692513391</v>
+        <v>87.20404931599305</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.7073746812016</v>
+        <v>78.07891707206073</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>118.7813687841211</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -3642,7 +3642,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>228.6904889104858</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C41" t="n">
-        <v>216.7018058681675</v>
+        <v>217.556762419713</v>
       </c>
       <c r="D41" t="n">
-        <v>207.6831099126955</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E41" t="n">
-        <v>229.425247482601</v>
+        <v>230.2802040341465</v>
       </c>
       <c r="F41" t="n">
-        <v>248.5970635705782</v>
+        <v>249.4520201221237</v>
       </c>
       <c r="G41" t="n">
-        <v>250.5303314680007</v>
+        <v>251.3852880195462</v>
       </c>
       <c r="H41" t="n">
-        <v>168.0804464463106</v>
+        <v>168.9354029978562</v>
       </c>
       <c r="I41" t="n">
-        <v>9.676411590938756</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.94407040359638</v>
+        <v>24.79902695514193</v>
       </c>
       <c r="T41" t="n">
-        <v>60.70274159394575</v>
+        <v>61.55769814549129</v>
       </c>
       <c r="U41" t="n">
-        <v>90.92386771079271</v>
+        <v>91.77882426233825</v>
       </c>
       <c r="V41" t="n">
-        <v>172.1968661506649</v>
+        <v>100.0120936199556</v>
       </c>
       <c r="W41" t="n">
-        <v>197.4969656286218</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X41" t="n">
-        <v>146.0504749098122</v>
+        <v>217.6521804129139</v>
       </c>
       <c r="Y41" t="n">
-        <v>228.1938216575672</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3882,7 +3882,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20.30719978518283</v>
+        <v>21.16215633672837</v>
       </c>
       <c r="C43" t="n">
-        <v>6.507194630583314</v>
+        <v>7.362151182128855</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.817935933475297</v>
+        <v>6.672892485020839</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.16004975799612</v>
+        <v>51.01500630954166</v>
       </c>
       <c r="T43" t="n">
-        <v>69.43454844012476</v>
+        <v>70.2895049916703</v>
       </c>
       <c r="U43" t="n">
-        <v>122.9057219034379</v>
+        <v>123.7606784549835</v>
       </c>
       <c r="V43" t="n">
-        <v>96.71533618480842</v>
+        <v>97.57029273635396</v>
       </c>
       <c r="W43" t="n">
-        <v>121.8822222554217</v>
+        <v>122.7371788069672</v>
       </c>
       <c r="X43" t="n">
-        <v>67.5273242512248</v>
+        <v>68.38228080277034</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.40219200729248</v>
+        <v>59.25714855883803</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>228.6904889104858</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C44" t="n">
-        <v>216.7018058681675</v>
+        <v>217.556762419713</v>
       </c>
       <c r="D44" t="n">
-        <v>207.6831099126955</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E44" t="n">
-        <v>229.425247482601</v>
+        <v>230.2802040341465</v>
       </c>
       <c r="F44" t="n">
-        <v>248.5970635705782</v>
+        <v>249.4520201221237</v>
       </c>
       <c r="G44" t="n">
-        <v>250.5303314680007</v>
+        <v>167.814190794807</v>
       </c>
       <c r="H44" t="n">
-        <v>168.0804464463106</v>
+        <v>168.9354029978562</v>
       </c>
       <c r="I44" t="n">
-        <v>9.676411590938784</v>
+        <v>10.5313681424843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.79902695514193</v>
       </c>
       <c r="T44" t="n">
-        <v>13.90006304598689</v>
+        <v>61.55769814549129</v>
       </c>
       <c r="U44" t="n">
-        <v>90.92386771079273</v>
+        <v>91.77882426233825</v>
       </c>
       <c r="V44" t="n">
-        <v>172.1968661506649</v>
+        <v>173.0518227022104</v>
       </c>
       <c r="W44" t="n">
-        <v>197.4969656286218</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X44" t="n">
-        <v>216.7972238613684</v>
+        <v>217.6521804129139</v>
       </c>
       <c r="Y44" t="n">
-        <v>228.1938216575672</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.30719978518286</v>
+        <v>21.16215633672837</v>
       </c>
       <c r="C46" t="n">
-        <v>6.507194630583342</v>
+        <v>7.362151182128855</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.817935933475326</v>
+        <v>6.672892485020839</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.16004975799615</v>
+        <v>51.01500630954166</v>
       </c>
       <c r="T46" t="n">
-        <v>69.43454844012479</v>
+        <v>70.2895049916703</v>
       </c>
       <c r="U46" t="n">
-        <v>122.905721903438</v>
+        <v>123.7606784549835</v>
       </c>
       <c r="V46" t="n">
-        <v>96.71533618480845</v>
+        <v>97.57029273635396</v>
       </c>
       <c r="W46" t="n">
-        <v>121.8822222554217</v>
+        <v>122.7371788069672</v>
       </c>
       <c r="X46" t="n">
-        <v>67.52732425122483</v>
+        <v>68.38228080277034</v>
       </c>
       <c r="Y46" t="n">
-        <v>58.40219200729251</v>
+        <v>59.25714855883803</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.966994527081</v>
+        <v>567.6784053011017</v>
       </c>
       <c r="C2" t="n">
-        <v>1162.505483560559</v>
+        <v>567.6784053011017</v>
       </c>
       <c r="D2" t="n">
-        <v>789.6815187877821</v>
+        <v>567.6784053011017</v>
       </c>
       <c r="E2" t="n">
-        <v>394.895798893889</v>
+        <v>567.6784053011017</v>
       </c>
       <c r="F2" t="n">
-        <v>384.7850122444634</v>
+        <v>557.5676186516762</v>
       </c>
       <c r="G2" t="n">
-        <v>372.7214297390555</v>
+        <v>545.5040361462683</v>
       </c>
       <c r="H2" t="n">
-        <v>39.90015533636472</v>
+        <v>212.6827617435776</v>
       </c>
       <c r="I2" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J2" t="n">
-        <v>111.8986996091704</v>
+        <v>111.8641072251792</v>
       </c>
       <c r="K2" t="n">
-        <v>247.9581341770622</v>
+        <v>352.004479269962</v>
       </c>
       <c r="L2" t="n">
-        <v>595.8435072620084</v>
+        <v>594.113888062451</v>
       </c>
       <c r="M2" t="n">
-        <v>989.0826735150963</v>
+        <v>987.3530543155389</v>
       </c>
       <c r="N2" t="n">
-        <v>1367.414032202812</v>
+        <v>1365.684413003255</v>
       </c>
       <c r="O2" t="n">
-        <v>1672.418616675646</v>
+        <v>1670.688997476089</v>
       </c>
       <c r="P2" t="n">
-        <v>1900.575513131699</v>
+        <v>1898.845893932142</v>
       </c>
       <c r="Q2" t="n">
-        <v>1995.007766818236</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="R2" t="n">
-        <v>1904.369480314089</v>
+        <v>1902.639861114532</v>
       </c>
       <c r="S2" t="n">
-        <v>1904.369480314089</v>
+        <v>1715.410885744886</v>
       </c>
       <c r="T2" t="n">
-        <v>1680.0105340451</v>
+        <v>1491.051939475897</v>
       </c>
       <c r="U2" t="n">
-        <v>1680.0105340451</v>
+        <v>1236.166603189891</v>
       </c>
       <c r="V2" t="n">
-        <v>1680.0105340451</v>
+        <v>1236.166603189891</v>
       </c>
       <c r="W2" t="n">
-        <v>1680.0105340451</v>
+        <v>873.6316730474923</v>
       </c>
       <c r="X2" t="n">
-        <v>1680.0105340451</v>
+        <v>567.6784053011017</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.0105340451</v>
+        <v>567.6784053011017</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.7534144119777</v>
+        <v>569.0742301512241</v>
       </c>
       <c r="C3" t="n">
-        <v>625.0497416529324</v>
+        <v>407.3705573921789</v>
       </c>
       <c r="D3" t="n">
-        <v>618.6706060695756</v>
+        <v>268.5319203823909</v>
       </c>
       <c r="E3" t="n">
-        <v>471.6425961264467</v>
+        <v>268.5319203823909</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9487980763211</v>
+        <v>268.5319203823909</v>
       </c>
       <c r="G3" t="n">
-        <v>208.2202980996057</v>
+        <v>139.8034204056755</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2824406463037</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I3" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J3" t="n">
-        <v>100.1543018694709</v>
+        <v>100.1197094854797</v>
       </c>
       <c r="K3" t="n">
-        <v>329.6448544296595</v>
+        <v>329.6102620456684</v>
       </c>
       <c r="L3" t="n">
-        <v>695.4666995997752</v>
+        <v>329.6102620456684</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.500053110002</v>
+        <v>814.6436155558948</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.264475397515</v>
+        <v>1307.979957091518</v>
       </c>
       <c r="O3" t="n">
-        <v>1837.236137032642</v>
+        <v>1533.410598557387</v>
       </c>
       <c r="P3" t="n">
-        <v>1837.236137032642</v>
+        <v>1835.506517833084</v>
       </c>
       <c r="Q3" t="n">
-        <v>1995.007766818236</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="R3" t="n">
-        <v>1995.007766818236</v>
+        <v>1933.493878713625</v>
       </c>
       <c r="S3" t="n">
-        <v>1995.007766818236</v>
+        <v>1780.694391726365</v>
       </c>
       <c r="T3" t="n">
-        <v>1806.322662984221</v>
+        <v>1592.00928789235</v>
       </c>
       <c r="U3" t="n">
-        <v>1806.322662984221</v>
+        <v>1373.51449549066</v>
       </c>
       <c r="V3" t="n">
-        <v>1577.927040432555</v>
+        <v>1145.118872938994</v>
       </c>
       <c r="W3" t="n">
-        <v>1336.611171665865</v>
+        <v>921.0149992829062</v>
       </c>
       <c r="X3" t="n">
-        <v>1138.69418354366</v>
+        <v>921.0149992829062</v>
       </c>
       <c r="Y3" t="n">
-        <v>946.1728571932387</v>
+        <v>728.493672932485</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.0057940875885</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="C4" t="n">
-        <v>344.3898245492688</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="D4" t="n">
-        <v>344.3898245492688</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="E4" t="n">
-        <v>192.3808103105876</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="F4" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="G4" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="H4" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I4" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J4" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="K4" t="n">
-        <v>73.50434308100813</v>
+        <v>73.46975069701699</v>
       </c>
       <c r="L4" t="n">
-        <v>174.1114224812677</v>
+        <v>174.0768300972765</v>
       </c>
       <c r="M4" t="n">
-        <v>292.1049286088694</v>
+        <v>292.0703362248782</v>
       </c>
       <c r="N4" t="n">
-        <v>410.5272703584698</v>
+        <v>410.4926779744786</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9909168541594</v>
+        <v>508.9563244701683</v>
       </c>
       <c r="P4" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="R4" t="n">
-        <v>571.9594005822972</v>
+        <v>549.0909612709966</v>
       </c>
       <c r="S4" t="n">
-        <v>571.9594005822972</v>
+        <v>549.0909612709966</v>
       </c>
       <c r="T4" t="n">
-        <v>571.9594005822972</v>
+        <v>549.0909612709966</v>
       </c>
       <c r="U4" t="n">
-        <v>571.9594005822972</v>
+        <v>261.9007217600965</v>
       </c>
       <c r="V4" t="n">
-        <v>571.9594005822972</v>
+        <v>261.9007217600965</v>
       </c>
       <c r="W4" t="n">
-        <v>571.9594005822972</v>
+        <v>261.9007217600965</v>
       </c>
       <c r="X4" t="n">
-        <v>514.0057940875885</v>
+        <v>261.9007217600965</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.0057940875885</v>
+        <v>39.86556295237357</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>444.008283158391</v>
+        <v>466.0803361476112</v>
       </c>
       <c r="C5" t="n">
-        <v>62.0745244911983</v>
+        <v>466.0803361476112</v>
       </c>
       <c r="D5" t="n">
-        <v>62.0745244911983</v>
+        <v>466.0803361476112</v>
       </c>
       <c r="E5" t="n">
-        <v>62.0745244911983</v>
+        <v>466.0803361476112</v>
       </c>
       <c r="F5" t="n">
-        <v>51.96373784177268</v>
+        <v>455.9695494981856</v>
       </c>
       <c r="G5" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="H5" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I5" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J5" t="n">
-        <v>111.8986996091704</v>
+        <v>111.8641072251792</v>
       </c>
       <c r="K5" t="n">
-        <v>352.0390716539532</v>
+        <v>352.004479269962</v>
       </c>
       <c r="L5" t="n">
-        <v>699.9244447388994</v>
+        <v>594.113888062451</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.163610991987</v>
+        <v>987.3530543155389</v>
       </c>
       <c r="N5" t="n">
-        <v>1471.494969679703</v>
+        <v>1365.684413003255</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.499554152537</v>
+        <v>1670.688997476089</v>
       </c>
       <c r="P5" t="n">
-        <v>1995.007766818236</v>
+        <v>1898.845893932142</v>
       </c>
       <c r="Q5" t="n">
-        <v>1995.007766818236</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="R5" t="n">
-        <v>1904.369480314089</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="S5" t="n">
-        <v>1717.140504944443</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="T5" t="n">
-        <v>1492.781558675455</v>
+        <v>1768.91920134969</v>
       </c>
       <c r="U5" t="n">
-        <v>1237.896222389449</v>
+        <v>1768.91920134969</v>
       </c>
       <c r="V5" t="n">
-        <v>900.9169482853899</v>
+        <v>1768.91920134969</v>
       </c>
       <c r="W5" t="n">
-        <v>538.382018142991</v>
+        <v>1406.384271207291</v>
       </c>
       <c r="X5" t="n">
-        <v>538.382018142991</v>
+        <v>1024.354130728784</v>
       </c>
       <c r="Y5" t="n">
-        <v>538.382018142991</v>
+        <v>630.8122753046224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.2129158384088</v>
+        <v>790.4498234777022</v>
       </c>
       <c r="C6" t="n">
-        <v>757.5092430793635</v>
+        <v>628.746150718657</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6706060695756</v>
+        <v>489.907513708869</v>
       </c>
       <c r="E6" t="n">
-        <v>471.6425961264467</v>
+        <v>342.8795037657402</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9487980763211</v>
+        <v>208.1857057156145</v>
       </c>
       <c r="G6" t="n">
-        <v>208.2202980996057</v>
+        <v>208.1857057156145</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2824406463037</v>
+        <v>108.2478482623126</v>
       </c>
       <c r="I6" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J6" t="n">
-        <v>39.90015533636472</v>
+        <v>100.1197094854797</v>
       </c>
       <c r="K6" t="n">
-        <v>269.3907078965534</v>
+        <v>329.6102620456684</v>
       </c>
       <c r="L6" t="n">
-        <v>269.3907078965534</v>
+        <v>464.9368720030842</v>
       </c>
       <c r="M6" t="n">
-        <v>754.4240614067799</v>
+        <v>949.9702255133107</v>
       </c>
       <c r="N6" t="n">
-        <v>1248.188483694293</v>
+        <v>1443.306567048934</v>
       </c>
       <c r="O6" t="n">
-        <v>1640.388434478444</v>
+        <v>1835.506517833084</v>
       </c>
       <c r="P6" t="n">
-        <v>1837.236137032642</v>
+        <v>1835.506517833084</v>
       </c>
       <c r="Q6" t="n">
-        <v>1995.007766818236</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="R6" t="n">
-        <v>1935.223497913182</v>
+        <v>1993.278147618679</v>
       </c>
       <c r="S6" t="n">
-        <v>1935.223497913182</v>
+        <v>1840.478660631419</v>
       </c>
       <c r="T6" t="n">
-        <v>1928.881334260676</v>
+        <v>1651.793556797404</v>
       </c>
       <c r="U6" t="n">
-        <v>1710.386541858986</v>
+        <v>1433.298764395714</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.386541858986</v>
+        <v>1204.903141844048</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.070673092296</v>
+        <v>988.3668115999077</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.153684970091</v>
+        <v>790.4498234777022</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.63235861967</v>
+        <v>790.4498234777022</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="C7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="D7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="E7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="F7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="G7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="H7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="I7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="J7" t="n">
-        <v>39.90015533636472</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="K7" t="n">
-        <v>73.50434308100813</v>
+        <v>73.46975069701699</v>
       </c>
       <c r="L7" t="n">
-        <v>174.1114224812677</v>
+        <v>174.0768300972765</v>
       </c>
       <c r="M7" t="n">
-        <v>292.1049286088694</v>
+        <v>292.0703362248782</v>
       </c>
       <c r="N7" t="n">
-        <v>410.5272703584698</v>
+        <v>410.4926779744786</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9909168541594</v>
+        <v>508.9563244701683</v>
       </c>
       <c r="P7" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="S7" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="T7" t="n">
-        <v>571.9594005822972</v>
+        <v>571.9248081983061</v>
       </c>
       <c r="U7" t="n">
-        <v>571.9594005822972</v>
+        <v>531.8533314985752</v>
       </c>
       <c r="V7" t="n">
-        <v>571.9594005822972</v>
+        <v>271.1180270569978</v>
       </c>
       <c r="W7" t="n">
-        <v>571.9594005822972</v>
+        <v>271.1180270569978</v>
       </c>
       <c r="X7" t="n">
-        <v>340.706936477673</v>
+        <v>39.86556295237357</v>
       </c>
       <c r="Y7" t="n">
-        <v>118.6717776699501</v>
+        <v>39.86556295237357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.70990816575</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.776149498557</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>663.9521847257809</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4832,22 +4832,22 @@
         <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>1755.689182269809</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V8" t="n">
-        <v>1418.70990816575</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="W8" t="n">
-        <v>1418.70990816575</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.70990816575</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.70990816575</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>674.4636602520131</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>674.4636602520131</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>535.6250232422252</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
-        <v>388.5970132990964</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
         <v>1799.116885784264</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1694.032908824257</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1465.63728627259</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1224.321417505901</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1026.404429383695</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>833.8831030332741</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>515.4336739462533</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>363.4246597075721</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1581.98485852681</v>
+        <v>1164.08670659783</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.627024615384</v>
+        <v>1164.08670659783</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.378984598374</v>
+        <v>905.8386665808199</v>
       </c>
       <c r="E11" t="n">
-        <v>776.1691894602473</v>
+        <v>625.6288714426931</v>
       </c>
       <c r="F11" t="n">
-        <v>476.593923526184</v>
+        <v>326.0536055086299</v>
       </c>
       <c r="G11" t="n">
-        <v>175.0658617361383</v>
+        <v>326.0536055086299</v>
       </c>
       <c r="H11" t="n">
-        <v>107.6933695318171</v>
+        <v>107.8082558617055</v>
       </c>
       <c r="I11" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>233.7465036223118</v>
+        <v>233.8613899522001</v>
       </c>
       <c r="K11" t="n">
-        <v>473.8868756670945</v>
+        <v>483.2464517155531</v>
       </c>
       <c r="L11" t="n">
-        <v>934.0681126051674</v>
+        <v>831.1318248004993</v>
       </c>
       <c r="M11" t="n">
-        <v>1327.307278858255</v>
+        <v>1224.370991053587</v>
       </c>
       <c r="N11" t="n">
-        <v>1705.638637545971</v>
+        <v>1602.702349741303</v>
       </c>
       <c r="O11" t="n">
-        <v>2010.643222018805</v>
+        <v>1907.706934214137</v>
       </c>
       <c r="P11" t="n">
-        <v>2242.415378028897</v>
+        <v>2248.159694523317</v>
       </c>
       <c r="Q11" t="n">
-        <v>2449.143495568561</v>
+        <v>2454.887812062981</v>
       </c>
       <c r="R11" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S11" t="n">
-        <v>2472.604774818974</v>
+        <v>2405.696040699514</v>
       </c>
       <c r="T11" t="n">
-        <v>2362.821753305751</v>
+        <v>2295.913019186291</v>
       </c>
       <c r="U11" t="n">
-        <v>2362.821753305751</v>
+        <v>2155.603607656051</v>
       </c>
       <c r="V11" t="n">
-        <v>2140.418403957459</v>
+        <v>1933.200258307759</v>
       </c>
       <c r="W11" t="n">
-        <v>2140.418403957459</v>
+        <v>1722.520252028478</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.418403957459</v>
+        <v>1722.520252028478</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.452473289063</v>
+        <v>1443.554321360083</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>833.2718741187114</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C12" t="n">
-        <v>671.5682013596661</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D12" t="n">
-        <v>559.8402609196512</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E12" t="n">
-        <v>412.8122509765225</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F12" t="n">
-        <v>278.1184529263969</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G12" t="n">
-        <v>149.3899529496814</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H12" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I12" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7062420294856</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K12" t="n">
-        <v>339.1967945896743</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L12" t="n">
-        <v>705.0186397597899</v>
+        <v>629.9825918346027</v>
       </c>
       <c r="M12" t="n">
-        <v>1190.051993270016</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.317639393139</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.51759017729</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.613509452987</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q12" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2412.820505913919</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S12" t="n">
-        <v>2260.02101892666</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2071.335915092645</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U12" t="n">
-        <v>1852.841122690955</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V12" t="n">
-        <v>1624.445500139289</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W12" t="n">
-        <v>1383.129631372599</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X12" t="n">
-        <v>1185.212643250394</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>992.6913168999723</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.0935923796734</v>
+        <v>347.2084787095613</v>
       </c>
       <c r="C13" t="n">
-        <v>292.0535475971201</v>
+        <v>292.168433927008</v>
       </c>
       <c r="D13" t="n">
-        <v>253.5575791806492</v>
+        <v>253.6724655105371</v>
       </c>
       <c r="E13" t="n">
-        <v>216.1244896977344</v>
+        <v>216.2393760276222</v>
       </c>
       <c r="F13" t="n">
-        <v>178.2197594792779</v>
+        <v>178.3346458091655</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8759356028943</v>
+        <v>123.9908219327828</v>
       </c>
       <c r="H13" t="n">
-        <v>79.07921513793457</v>
+        <v>79.19410146782297</v>
       </c>
       <c r="I13" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>102.8858598115368</v>
+        <v>103.0007461414252</v>
       </c>
       <c r="K13" t="n">
-        <v>248.7859114093068</v>
+        <v>248.9007977391952</v>
       </c>
       <c r="L13" t="n">
-        <v>461.6888546626931</v>
+        <v>461.8037409925814</v>
       </c>
       <c r="M13" t="n">
-        <v>691.9782246434215</v>
+        <v>692.0931109733099</v>
       </c>
       <c r="N13" t="n">
-        <v>922.6964302461486</v>
+        <v>922.8113165760369</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.455940594965</v>
+        <v>1133.570826924853</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.720288176229</v>
+        <v>1308.835174506118</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.245703775837</v>
+        <v>1383.360590105725</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.299847145981</v>
+        <v>1348.414733475869</v>
       </c>
       <c r="S13" t="n">
-        <v>1249.166009305435</v>
+        <v>1249.280895635323</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.56298087688</v>
+        <v>1130.677867206768</v>
       </c>
       <c r="U13" t="n">
-        <v>957.9486661217466</v>
+        <v>958.0635524516348</v>
       </c>
       <c r="V13" t="n">
-        <v>811.7892864359358</v>
+        <v>811.9041727658238</v>
       </c>
       <c r="W13" t="n">
-        <v>640.2088097091013</v>
+        <v>640.3236960389893</v>
       </c>
       <c r="X13" t="n">
-        <v>523.5322703602433</v>
+        <v>523.6471566901314</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.0730363082868</v>
+        <v>416.1879226381747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1154.843030497006</v>
+        <v>1041.78956389484</v>
       </c>
       <c r="C14" t="n">
-        <v>887.4851965855796</v>
+        <v>1041.78956389484</v>
       </c>
       <c r="D14" t="n">
-        <v>629.2371565685695</v>
+        <v>783.5415238778301</v>
       </c>
       <c r="E14" t="n">
-        <v>349.0273614304428</v>
+        <v>627.5816672986755</v>
       </c>
       <c r="F14" t="n">
-        <v>49.45209549637947</v>
+        <v>627.5816672986755</v>
       </c>
       <c r="G14" t="n">
-        <v>49.45209549637947</v>
+        <v>326.0536055086298</v>
       </c>
       <c r="H14" t="n">
-        <v>49.45209549637947</v>
+        <v>107.8082558617055</v>
       </c>
       <c r="I14" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>121.4506397691851</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K14" t="n">
-        <v>473.8868756670945</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L14" t="n">
-        <v>821.7722487520407</v>
+        <v>821.8871350819292</v>
       </c>
       <c r="M14" t="n">
-        <v>1215.011415005129</v>
+        <v>1215.126301335017</v>
       </c>
       <c r="N14" t="n">
-        <v>1620.419312497296</v>
+        <v>1705.75352387586</v>
       </c>
       <c r="O14" t="n">
-        <v>2037.719760823257</v>
+        <v>2123.05397220182</v>
       </c>
       <c r="P14" t="n">
-        <v>2265.87665727931</v>
+        <v>2351.210868657874</v>
       </c>
       <c r="Q14" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R14" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S14" t="n">
-        <v>2399.951724205094</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="T14" t="n">
-        <v>2399.951724205094</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="U14" t="n">
-        <v>2259.642312674854</v>
+        <v>2338.039679783154</v>
       </c>
       <c r="V14" t="n">
-        <v>2037.238963326562</v>
+        <v>2115.636330434862</v>
       </c>
       <c r="W14" t="n">
-        <v>1980.730791650395</v>
+        <v>1867.677325048229</v>
       </c>
       <c r="X14" t="n">
-        <v>1713.276575927654</v>
+        <v>1600.223109325489</v>
       </c>
       <c r="Y14" t="n">
-        <v>1434.310645259259</v>
+        <v>1321.257178657093</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>833.2718741187114</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C15" t="n">
-        <v>671.5682013596661</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D15" t="n">
-        <v>532.7295643498782</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E15" t="n">
-        <v>385.7015544067494</v>
+        <v>391.4458709011691</v>
       </c>
       <c r="F15" t="n">
-        <v>251.0077563566237</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2792563799083</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H15" t="n">
-        <v>117.8343808063185</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I15" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7062420294856</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K15" t="n">
-        <v>339.1967945896743</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>705.0186397597899</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1190.051993270016</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.317639393139</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O15" t="n">
-        <v>2093.51759017729</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P15" t="n">
-        <v>2395.613509452987</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q15" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2412.820505913919</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S15" t="n">
-        <v>2260.02101892666</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2071.335915092645</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U15" t="n">
-        <v>1852.841122690955</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V15" t="n">
-        <v>1624.445500139289</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W15" t="n">
-        <v>1383.129631372599</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X15" t="n">
-        <v>1185.212643250394</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>992.6913168999723</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.0935923796729</v>
+        <v>347.2084787095613</v>
       </c>
       <c r="C16" t="n">
-        <v>292.0535475971197</v>
+        <v>292.1684339270082</v>
       </c>
       <c r="D16" t="n">
-        <v>253.5575791806492</v>
+        <v>253.6724655105376</v>
       </c>
       <c r="E16" t="n">
-        <v>216.1244896977344</v>
+        <v>216.2393760276228</v>
       </c>
       <c r="F16" t="n">
-        <v>178.219759479278</v>
+        <v>178.3346458091664</v>
       </c>
       <c r="G16" t="n">
-        <v>123.8759356028944</v>
+        <v>123.9908219327828</v>
       </c>
       <c r="H16" t="n">
-        <v>79.0792151379346</v>
+        <v>79.194101467823</v>
       </c>
       <c r="I16" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>102.8858598115368</v>
+        <v>103.0007461414252</v>
       </c>
       <c r="K16" t="n">
-        <v>248.7859114093068</v>
+        <v>248.9007977391952</v>
       </c>
       <c r="L16" t="n">
-        <v>461.6888546626927</v>
+        <v>461.8037409925811</v>
       </c>
       <c r="M16" t="n">
-        <v>691.9782246434212</v>
+        <v>692.0931109733096</v>
       </c>
       <c r="N16" t="n">
-        <v>922.696430246148</v>
+        <v>922.8113165760365</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.455940594964</v>
+        <v>1133.570826924853</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.720288176229</v>
+        <v>1308.835174506117</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.245703775836</v>
+        <v>1383.360590105724</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.299847145981</v>
+        <v>1348.414733475869</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.166009305435</v>
+        <v>1249.280895635323</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.56298087688</v>
+        <v>1130.677867206768</v>
       </c>
       <c r="U16" t="n">
-        <v>957.9486661217461</v>
+        <v>958.0635524516346</v>
       </c>
       <c r="V16" t="n">
-        <v>811.7892864359351</v>
+        <v>811.9041727658235</v>
       </c>
       <c r="W16" t="n">
-        <v>640.2088097091006</v>
+        <v>640.3236960389891</v>
       </c>
       <c r="X16" t="n">
-        <v>523.5322703602427</v>
+        <v>523.6471566901312</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.0730363082863</v>
+        <v>416.1879226381747</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1322.756184793694</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C17" t="n">
-        <v>1114.041727072315</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D17" t="n">
-        <v>914.4370632453517</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E17" t="n">
-        <v>692.8706442972718</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F17" t="n">
-        <v>451.9387545532554</v>
+        <v>452.8578451923626</v>
       </c>
       <c r="G17" t="n">
-        <v>209.0540689532569</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H17" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I17" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>121.4506397691851</v>
+        <v>152.4028135569185</v>
       </c>
       <c r="K17" t="n">
-        <v>361.5910118139679</v>
+        <v>561.9213221369603</v>
       </c>
       <c r="L17" t="n">
-        <v>879.2486217559058</v>
+        <v>909.8066952219065</v>
       </c>
       <c r="M17" t="n">
-        <v>1272.487788008994</v>
+        <v>1303.045861474994</v>
       </c>
       <c r="N17" t="n">
-        <v>1820.591383553701</v>
+        <v>1850.755356697969</v>
       </c>
       <c r="O17" t="n">
-        <v>2125.595968026535</v>
+        <v>2155.759941170803</v>
       </c>
       <c r="P17" t="n">
-        <v>2353.752864482588</v>
+        <v>2383.916837626856</v>
       </c>
       <c r="Q17" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R17" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
-        <v>2458.595100395141</v>
+        <v>2463.937314734952</v>
       </c>
       <c r="T17" t="n">
-        <v>2407.455455071965</v>
+        <v>2412.395567257167</v>
       </c>
       <c r="U17" t="n">
-        <v>2325.789419731773</v>
+        <v>2330.327429762365</v>
       </c>
       <c r="V17" t="n">
-        <v>2162.029446573527</v>
+        <v>2166.16535444951</v>
       </c>
       <c r="W17" t="n">
-        <v>1972.713817376942</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X17" t="n">
-        <v>1763.902977844249</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1543.5804233659</v>
+        <v>1546.510024778054</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.7648559984235</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0611832393782</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D18" t="n">
-        <v>628.2225462295903</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E18" t="n">
-        <v>481.1945362864616</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F18" t="n">
-        <v>346.5007382363359</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G18" t="n">
-        <v>217.7722382596205</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H18" t="n">
-        <v>117.8343808063185</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I18" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7062420294856</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K18" t="n">
-        <v>339.1967945896743</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L18" t="n">
-        <v>705.0186397597899</v>
+        <v>629.9825918346027</v>
       </c>
       <c r="M18" t="n">
-        <v>1190.051993270016</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.317639393139</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.51759017729</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P18" t="n">
-        <v>2314.833145033379</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q18" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2412.820505913919</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S18" t="n">
-        <v>2260.02101892666</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T18" t="n">
-        <v>2071.335915092645</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U18" t="n">
-        <v>1852.841122690955</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V18" t="n">
-        <v>1624.445500139289</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W18" t="n">
-        <v>1383.129631372599</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X18" t="n">
-        <v>1185.212643250394</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y18" t="n">
-        <v>992.6913168999723</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>49.45209549637947</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>49.45209549637958</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>83.056283241023</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>183.6633626412825</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>301.6568687688842</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>420.0792105184846</v>
+        <v>423.4109140852476</v>
       </c>
       <c r="O19" t="n">
-        <v>518.5428570141743</v>
+        <v>521.8745605809372</v>
       </c>
       <c r="P19" t="n">
-        <v>581.5113407423121</v>
+        <v>584.843044309075</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.5113407423121</v>
+        <v>584.843044309075</v>
       </c>
       <c r="R19" t="n">
-        <v>581.5113407423121</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S19" t="n">
-        <v>541.020879091813</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T19" t="n">
-        <v>481.0612268533051</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U19" t="n">
-        <v>367.0902882882182</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V19" t="n">
-        <v>279.5742847924541</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W19" t="n">
-        <v>166.6371842556665</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X19" t="n">
-        <v>108.6040210968556</v>
+        <v>109.5231117359626</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.788163234946</v>
+        <v>60.3051517194437</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1322.756184793695</v>
+        <v>1325.283684051239</v>
       </c>
       <c r="C20" t="n">
-        <v>1114.041727072315</v>
+        <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>914.437063245352</v>
+        <v>916.1603581936773</v>
       </c>
       <c r="E20" t="n">
-        <v>692.8706442972721</v>
+        <v>694.1918370909882</v>
       </c>
       <c r="F20" t="n">
-        <v>451.9387545532557</v>
+        <v>452.8578451923626</v>
       </c>
       <c r="G20" t="n">
-        <v>209.0540689532569</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H20" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I20" t="n">
-        <v>49.84619581811207</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>121.8447400909177</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>386.0106684638172</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L20" t="n">
-        <v>903.668278405755</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M20" t="n">
-        <v>1296.907444658843</v>
+        <v>1102.83043748189</v>
       </c>
       <c r="N20" t="n">
-        <v>1675.238803346559</v>
+        <v>1650.539932704865</v>
       </c>
       <c r="O20" t="n">
-        <v>1980.243387819393</v>
+        <v>1955.544517177699</v>
       </c>
       <c r="P20" t="n">
-        <v>2208.400284275446</v>
+        <v>2303.373285694312</v>
       </c>
       <c r="Q20" t="n">
-        <v>2472.604774818974</v>
+        <v>2397.805539380849</v>
       </c>
       <c r="R20" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S20" t="n">
-        <v>2458.595100395141</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T20" t="n">
-        <v>2407.455455071966</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U20" t="n">
-        <v>2325.789419731773</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V20" t="n">
-        <v>2162.029446573528</v>
+        <v>2166.16535444951</v>
       </c>
       <c r="W20" t="n">
-        <v>1972.713817376942</v>
+        <v>1976.447623098315</v>
       </c>
       <c r="X20" t="n">
-        <v>1763.902977844249</v>
+        <v>1767.234681411012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1543.5804233659</v>
+        <v>1546.510024778055</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.7648559984235</v>
+        <v>839.0161906131311</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0611832393782</v>
+        <v>677.3125178540859</v>
       </c>
       <c r="D21" t="n">
-        <v>628.2225462295903</v>
+        <v>538.4738808442979</v>
       </c>
       <c r="E21" t="n">
-        <v>481.1945362864616</v>
+        <v>391.4458709011691</v>
       </c>
       <c r="F21" t="n">
-        <v>346.5007382363359</v>
+        <v>256.7520728510435</v>
       </c>
       <c r="G21" t="n">
-        <v>217.7722382596205</v>
+        <v>128.0235728743281</v>
       </c>
       <c r="H21" t="n">
-        <v>117.8343808063185</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I21" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7062420294856</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K21" t="n">
-        <v>258.4164301700682</v>
+        <v>279.0575343864565</v>
       </c>
       <c r="L21" t="n">
-        <v>624.2382753401838</v>
+        <v>644.8793795565721</v>
       </c>
       <c r="M21" t="n">
-        <v>1109.27162885041</v>
+        <v>1129.912733066798</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.537274973532</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.737225757683</v>
+        <v>2018.481542252102</v>
       </c>
       <c r="P21" t="n">
-        <v>2314.83314503338</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q21" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2412.82050591392</v>
+        <v>2418.564822408339</v>
       </c>
       <c r="S21" t="n">
-        <v>2260.02101892666</v>
+        <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.828896972357</v>
+        <v>2077.080231587065</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.334104570667</v>
+        <v>1858.585439185375</v>
       </c>
       <c r="V21" t="n">
-        <v>1719.938482019001</v>
+        <v>1630.189816633709</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.622613252311</v>
+        <v>1388.873947867019</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.705625130106</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.184298779684</v>
+        <v>998.4356333943921</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J22" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K22" t="n">
-        <v>83.0562832410229</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L22" t="n">
-        <v>183.6633626412824</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M22" t="n">
-        <v>301.6568687688841</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N22" t="n">
-        <v>420.0792105184845</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O22" t="n">
-        <v>518.5428570141742</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P22" t="n">
-        <v>581.511340742312</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.511340742312</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R22" t="n">
-        <v>581.511340742312</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S22" t="n">
-        <v>541.020879091813</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T22" t="n">
-        <v>481.0612268533051</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U22" t="n">
-        <v>367.0902882882182</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V22" t="n">
-        <v>279.5742847924541</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W22" t="n">
-        <v>166.6371842556665</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X22" t="n">
-        <v>108.6040210968556</v>
+        <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.78816323494598</v>
+        <v>60.3051517194437</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1322.756184793695</v>
+        <v>1325.283684051238</v>
       </c>
       <c r="C23" t="n">
-        <v>1114.041727072315</v>
+        <v>1116.167124175249</v>
       </c>
       <c r="D23" t="n">
-        <v>914.4370632453517</v>
+        <v>916.1603581936771</v>
       </c>
       <c r="E23" t="n">
-        <v>692.8706442972718</v>
+        <v>694.191837090988</v>
       </c>
       <c r="F23" t="n">
-        <v>451.9387545532556</v>
+        <v>452.8578451923624</v>
       </c>
       <c r="G23" t="n">
-        <v>209.0540689532569</v>
+        <v>209.5710574377546</v>
       </c>
       <c r="H23" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I23" t="n">
-        <v>49.84619581811207</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J23" t="n">
-        <v>291.6169769479093</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K23" t="n">
-        <v>531.7573489926921</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L23" t="n">
-        <v>903.668278405755</v>
+        <v>878.9694077640615</v>
       </c>
       <c r="M23" t="n">
-        <v>1296.907444658843</v>
+        <v>1272.208574017149</v>
       </c>
       <c r="N23" t="n">
-        <v>1675.238803346559</v>
+        <v>1819.918069240124</v>
       </c>
       <c r="O23" t="n">
-        <v>1980.243387819393</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P23" t="n">
-        <v>2378.172521132437</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R23" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.595100395141</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T23" t="n">
-        <v>2407.455455071966</v>
+        <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2325.789419731773</v>
+        <v>2330.327429762364</v>
       </c>
       <c r="V23" t="n">
-        <v>2162.029446573528</v>
+        <v>2166.165354449509</v>
       </c>
       <c r="W23" t="n">
-        <v>1972.713817376942</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
-        <v>1763.902977844249</v>
+        <v>1767.234681411011</v>
       </c>
       <c r="Y23" t="n">
-        <v>1543.5804233659</v>
+        <v>1546.510024778053</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.7648559984235</v>
+        <v>898.8004595181853</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0611832393782</v>
+        <v>737.0967867591401</v>
       </c>
       <c r="D24" t="n">
-        <v>628.2225462295903</v>
+        <v>598.2581497493521</v>
       </c>
       <c r="E24" t="n">
-        <v>481.1945362864616</v>
+        <v>451.2301398062233</v>
       </c>
       <c r="F24" t="n">
-        <v>346.5007382363359</v>
+        <v>346.6156245662243</v>
       </c>
       <c r="G24" t="n">
-        <v>217.7722382596205</v>
+        <v>217.8871245895088</v>
       </c>
       <c r="H24" t="n">
-        <v>117.8343808063185</v>
+        <v>117.9492671362069</v>
       </c>
       <c r="I24" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J24" t="n">
-        <v>49.45209549637949</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K24" t="n">
-        <v>278.9426480565681</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
-        <v>624.2382753401838</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M24" t="n">
-        <v>1109.27162885041</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.537274973532</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.737225757683</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P24" t="n">
-        <v>2314.83314503338</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q24" t="n">
-        <v>2472.604774818974</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R24" t="n">
-        <v>2412.82050591392</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="S24" t="n">
-        <v>2355.514000806371</v>
+        <v>2325.549604326133</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.828896972357</v>
+        <v>2136.864500492119</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.334104570667</v>
+        <v>1918.369708090429</v>
       </c>
       <c r="V24" t="n">
-        <v>1719.938482019001</v>
+        <v>1689.974085538763</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.622613252311</v>
+        <v>1448.658216772073</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.705625130106</v>
+        <v>1250.741228649867</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.184298779684</v>
+        <v>1058.219902299446</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="C25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H25" t="n">
-        <v>49.45209549637949</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I25" t="n">
-        <v>49.45209549637958</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J25" t="n">
-        <v>49.45209549637958</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K25" t="n">
-        <v>83.056283241023</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L25" t="n">
-        <v>183.6633626412825</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M25" t="n">
-        <v>301.6568687688842</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N25" t="n">
-        <v>420.0792105184846</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O25" t="n">
-        <v>518.5428570141743</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P25" t="n">
-        <v>581.5113407423121</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.5113407423121</v>
+        <v>581.6262270722004</v>
       </c>
       <c r="R25" t="n">
-        <v>581.5113407423121</v>
+        <v>584.843044309075</v>
       </c>
       <c r="S25" t="n">
-        <v>541.020879091813</v>
+        <v>543.9504805039666</v>
       </c>
       <c r="T25" t="n">
-        <v>481.0612268533051</v>
+        <v>483.5887261108493</v>
       </c>
       <c r="U25" t="n">
-        <v>367.0902882882182</v>
+        <v>369.2156853911532</v>
       </c>
       <c r="V25" t="n">
-        <v>279.5742847924541</v>
+        <v>281.2975797407798</v>
       </c>
       <c r="W25" t="n">
-        <v>166.6371842556666</v>
+        <v>167.9583770493829</v>
       </c>
       <c r="X25" t="n">
-        <v>108.6040210968556</v>
+        <v>109.5231117359626</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.78816323494602</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626.597588703488</v>
+        <v>1463.997918570887</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.700401083708</v>
+        <v>1196.640084659461</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.452361066698</v>
+        <v>938.3920446424507</v>
       </c>
       <c r="E26" t="n">
-        <v>938.2425659285714</v>
+        <v>938.3920446424507</v>
       </c>
       <c r="F26" t="n">
-        <v>638.6672999945081</v>
+        <v>638.8167787083875</v>
       </c>
       <c r="G26" t="n">
-        <v>337.1392382044623</v>
+        <v>337.2887169183418</v>
       </c>
       <c r="H26" t="n">
-        <v>118.8938885575381</v>
+        <v>119.0433672714175</v>
       </c>
       <c r="I26" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598004</v>
       </c>
       <c r="J26" t="n">
-        <v>244.9470226480328</v>
+        <v>245.0965013619123</v>
       </c>
       <c r="K26" t="n">
-        <v>597.3832585459422</v>
+        <v>597.5327372598217</v>
       </c>
       <c r="L26" t="n">
-        <v>1057.564495484015</v>
+        <v>1057.713974197894</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.099525590229</v>
+        <v>1563.249004304109</v>
       </c>
       <c r="N26" t="n">
-        <v>2044.688120679808</v>
+        <v>2053.876226844951</v>
       </c>
       <c r="O26" t="n">
-        <v>2461.988569005768</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P26" t="n">
-        <v>2802.441329314948</v>
+        <v>2809.915265008925</v>
       </c>
       <c r="Q26" t="n">
-        <v>3009.169446854612</v>
+        <v>3016.643382548589</v>
       </c>
       <c r="R26" t="n">
-        <v>3032.630726105024</v>
+        <v>3040.104661799002</v>
       </c>
       <c r="S26" t="n">
-        <v>3032.630726105024</v>
+        <v>2967.451611185122</v>
       </c>
       <c r="T26" t="n">
-        <v>2922.847704591802</v>
+        <v>2857.6685896719</v>
       </c>
       <c r="U26" t="n">
-        <v>2922.847704591802</v>
+        <v>2717.35917814166</v>
       </c>
       <c r="V26" t="n">
-        <v>2700.44435524351</v>
+        <v>2494.955828793368</v>
       </c>
       <c r="W26" t="n">
-        <v>2452.485349856877</v>
+        <v>2246.996823406735</v>
       </c>
       <c r="X26" t="n">
-        <v>2185.031134134137</v>
+        <v>2022.431464001535</v>
       </c>
       <c r="Y26" t="n">
-        <v>1906.065203465741</v>
+        <v>1743.46553333314</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.2527575640399</v>
+        <v>940.1148537380242</v>
       </c>
       <c r="C27" t="n">
-        <v>763.5490848049947</v>
+        <v>778.4111809789789</v>
       </c>
       <c r="D27" t="n">
-        <v>624.7104477952067</v>
+        <v>639.572543969191</v>
       </c>
       <c r="E27" t="n">
-        <v>477.682437852078</v>
+        <v>492.5445340260621</v>
       </c>
       <c r="F27" t="n">
-        <v>342.9886398019523</v>
+        <v>357.8507359759365</v>
       </c>
       <c r="G27" t="n">
-        <v>214.2601398252369</v>
+        <v>229.122235999221</v>
       </c>
       <c r="H27" t="n">
-        <v>114.3222823719349</v>
+        <v>129.1843785459191</v>
       </c>
       <c r="I27" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598004</v>
       </c>
       <c r="J27" t="n">
-        <v>120.9067610552066</v>
+        <v>121.0562397690862</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3973136153953</v>
+        <v>350.5467923292748</v>
       </c>
       <c r="L27" t="n">
-        <v>716.2191587855109</v>
+        <v>716.3686374993904</v>
       </c>
       <c r="M27" t="n">
-        <v>1201.252512295737</v>
+        <v>1201.401991009617</v>
       </c>
       <c r="N27" t="n">
-        <v>1712.518158418859</v>
+        <v>1712.667637132739</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.71810920301</v>
+        <v>2104.86758791689</v>
       </c>
       <c r="P27" t="n">
-        <v>2406.814028478708</v>
+        <v>2406.963507192587</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.585658264302</v>
+        <v>2564.735136978181</v>
       </c>
       <c r="R27" t="n">
-        <v>2504.801389359247</v>
+        <v>2519.663485533232</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.001902371988</v>
+        <v>2366.863998545972</v>
       </c>
       <c r="T27" t="n">
-        <v>2163.316798537973</v>
+        <v>2178.178894711958</v>
       </c>
       <c r="U27" t="n">
-        <v>1944.822006136283</v>
+        <v>1959.684102310268</v>
       </c>
       <c r="V27" t="n">
-        <v>1716.426383584617</v>
+        <v>1731.288479758602</v>
       </c>
       <c r="W27" t="n">
-        <v>1475.110514817927</v>
+        <v>1489.972610991912</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.193526695722</v>
+        <v>1292.055622869706</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.672200345301</v>
+        <v>1099.534296519285</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.2941114053946</v>
+        <v>358.4435901192738</v>
       </c>
       <c r="C28" t="n">
-        <v>303.2540666228413</v>
+        <v>303.4035453367204</v>
       </c>
       <c r="D28" t="n">
-        <v>264.7580982063704</v>
+        <v>264.9075769202495</v>
       </c>
       <c r="E28" t="n">
-        <v>227.3250087234556</v>
+        <v>227.4744874373348</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4202785049991</v>
+        <v>189.5697572188783</v>
       </c>
       <c r="G28" t="n">
-        <v>135.0764546286154</v>
+        <v>135.2259333424947</v>
       </c>
       <c r="H28" t="n">
-        <v>90.27973416365558</v>
+        <v>90.42921287753506</v>
       </c>
       <c r="I28" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598004</v>
       </c>
       <c r="J28" t="n">
-        <v>114.0863788372575</v>
+        <v>114.2358575511374</v>
       </c>
       <c r="K28" t="n">
-        <v>259.9864304350278</v>
+        <v>260.1359091489074</v>
       </c>
       <c r="L28" t="n">
-        <v>472.8893736884139</v>
+        <v>473.0388524022936</v>
       </c>
       <c r="M28" t="n">
-        <v>703.1787436691424</v>
+        <v>703.328222383022</v>
       </c>
       <c r="N28" t="n">
-        <v>933.8969492718693</v>
+        <v>934.046427985749</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.656459620686</v>
+        <v>1144.805938334565</v>
       </c>
       <c r="P28" t="n">
-        <v>1319.92080720195</v>
+        <v>1320.07028591583</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.446222801557</v>
+        <v>1394.595701515436</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.500366171702</v>
+        <v>1359.649844885581</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.366528331156</v>
+        <v>1260.516007045035</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.763499902601</v>
+        <v>1141.912978616481</v>
       </c>
       <c r="U28" t="n">
-        <v>969.1491851474675</v>
+        <v>969.298663861347</v>
       </c>
       <c r="V28" t="n">
-        <v>822.9898054616565</v>
+        <v>823.1392841755359</v>
       </c>
       <c r="W28" t="n">
-        <v>651.409328734822</v>
+        <v>651.5588074487015</v>
       </c>
       <c r="X28" t="n">
-        <v>534.7327893859642</v>
+        <v>534.8822680998437</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.2735553340078</v>
+        <v>427.4230340478872</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.810194978124</v>
+        <v>1421.109062253346</v>
       </c>
       <c r="C29" t="n">
-        <v>1218.452361066698</v>
+        <v>1153.75122834192</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.452361066698</v>
+        <v>895.5031883249101</v>
       </c>
       <c r="E29" t="n">
-        <v>938.2425659285715</v>
+        <v>615.2933931867833</v>
       </c>
       <c r="F29" t="n">
-        <v>638.6672999945082</v>
+        <v>362.3301550260256</v>
       </c>
       <c r="G29" t="n">
-        <v>337.1392382044626</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="H29" t="n">
-        <v>118.8938885575381</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="I29" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J29" t="n">
-        <v>235.9083951967681</v>
+        <v>245.0965013619123</v>
       </c>
       <c r="K29" t="n">
-        <v>588.3446310946775</v>
+        <v>595.8185667886547</v>
       </c>
       <c r="L29" t="n">
-        <v>1048.52586803275</v>
+        <v>1055.999803726728</v>
       </c>
       <c r="M29" t="n">
-        <v>1554.060898138965</v>
+        <v>1561.534833832942</v>
       </c>
       <c r="N29" t="n">
-        <v>2044.688120679808</v>
+        <v>2052.162056373785</v>
       </c>
       <c r="O29" t="n">
-        <v>2461.988569005768</v>
+        <v>2469.462504699745</v>
       </c>
       <c r="P29" t="n">
-        <v>2802.441329314948</v>
+        <v>2809.915265008925</v>
       </c>
       <c r="Q29" t="n">
-        <v>3009.169446854612</v>
+        <v>3016.643382548589</v>
       </c>
       <c r="R29" t="n">
-        <v>3032.630726105024</v>
+        <v>3040.104661799001</v>
       </c>
       <c r="S29" t="n">
-        <v>2959.977675491145</v>
+        <v>2967.451611185122</v>
       </c>
       <c r="T29" t="n">
-        <v>2922.369722396678</v>
+        <v>2857.668589671899</v>
       </c>
       <c r="U29" t="n">
-        <v>2782.060310866438</v>
+        <v>2717.359178141659</v>
       </c>
       <c r="V29" t="n">
-        <v>2559.656961518146</v>
+        <v>2494.955828793367</v>
       </c>
       <c r="W29" t="n">
-        <v>2311.697956131513</v>
+        <v>2246.996823406735</v>
       </c>
       <c r="X29" t="n">
-        <v>2044.243740408773</v>
+        <v>1979.542607683994</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.277809740377</v>
+        <v>1700.576677015599</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.9653750241445</v>
+        <v>925.4022362779194</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2617022650992</v>
+        <v>763.6985635188742</v>
       </c>
       <c r="D30" t="n">
-        <v>639.4230652553113</v>
+        <v>624.8599265090862</v>
       </c>
       <c r="E30" t="n">
-        <v>492.3950553121825</v>
+        <v>477.8319165659574</v>
       </c>
       <c r="F30" t="n">
-        <v>357.7012572620569</v>
+        <v>343.1381185158318</v>
       </c>
       <c r="G30" t="n">
-        <v>228.9727572853415</v>
+        <v>214.4096185391164</v>
       </c>
       <c r="H30" t="n">
-        <v>129.0348998320395</v>
+        <v>114.4717610858144</v>
       </c>
       <c r="I30" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J30" t="n">
-        <v>120.9067610552066</v>
+        <v>121.0562397690862</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3973136153953</v>
+        <v>350.5467923292748</v>
       </c>
       <c r="L30" t="n">
-        <v>716.2191587855109</v>
+        <v>716.3686374993904</v>
       </c>
       <c r="M30" t="n">
-        <v>1201.252512295737</v>
+        <v>1201.401991009617</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.518158418859</v>
+        <v>1712.667637132739</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.71810920301</v>
+        <v>2104.86758791689</v>
       </c>
       <c r="P30" t="n">
-        <v>2406.814028478708</v>
+        <v>2406.963507192587</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.585658264302</v>
+        <v>2564.735136978181</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.801389359247</v>
+        <v>2504.950868073127</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.001902371988</v>
+        <v>2352.151381085867</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.029415998078</v>
+        <v>2163.466277251853</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.534623596388</v>
+        <v>1944.971484850163</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.139001044722</v>
+        <v>1716.575862298497</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.823132278032</v>
+        <v>1475.259993531807</v>
       </c>
       <c r="X30" t="n">
-        <v>1291.906144155826</v>
+        <v>1277.343005409601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.384817805405</v>
+        <v>1084.82167905918</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.2941114053944</v>
+        <v>358.4435901192738</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2540666228412</v>
+        <v>303.4035453367205</v>
       </c>
       <c r="D31" t="n">
-        <v>264.7580982063703</v>
+        <v>264.9075769202498</v>
       </c>
       <c r="E31" t="n">
-        <v>227.3250087234555</v>
+        <v>227.474487437335</v>
       </c>
       <c r="F31" t="n">
-        <v>189.420278504999</v>
+        <v>189.5697572188785</v>
       </c>
       <c r="G31" t="n">
-        <v>135.0764546286154</v>
+        <v>135.225933342495</v>
       </c>
       <c r="H31" t="n">
-        <v>90.27973416365558</v>
+        <v>90.42921287753506</v>
       </c>
       <c r="I31" t="n">
-        <v>60.65261452210049</v>
+        <v>60.80209323598003</v>
       </c>
       <c r="J31" t="n">
-        <v>114.0863788372581</v>
+        <v>114.2358575511374</v>
       </c>
       <c r="K31" t="n">
-        <v>259.9864304350283</v>
+        <v>260.1359091489074</v>
       </c>
       <c r="L31" t="n">
-        <v>472.8893736884146</v>
+        <v>473.0388524022933</v>
       </c>
       <c r="M31" t="n">
-        <v>703.1787436691429</v>
+        <v>703.328222383022</v>
       </c>
       <c r="N31" t="n">
-        <v>933.89694927187</v>
+        <v>934.046427985749</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.656459620686</v>
+        <v>1144.805938334565</v>
       </c>
       <c r="P31" t="n">
-        <v>1319.920807201951</v>
+        <v>1320.07028591583</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.446222801558</v>
+        <v>1394.595701515437</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.500366171702</v>
+        <v>1359.649844885582</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.366528331156</v>
+        <v>1260.516007045036</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.763499902601</v>
+        <v>1141.912978616481</v>
       </c>
       <c r="U31" t="n">
-        <v>969.1491851474676</v>
+        <v>969.2986638613471</v>
       </c>
       <c r="V31" t="n">
-        <v>822.9898054616566</v>
+        <v>823.1392841755361</v>
       </c>
       <c r="W31" t="n">
-        <v>651.4093287348221</v>
+        <v>651.5588074487016</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7327893859642</v>
+        <v>534.8822680998437</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.2735553340078</v>
+        <v>427.4230340478873</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.165579471061</v>
+        <v>1541.907533211064</v>
       </c>
       <c r="C32" t="n">
-        <v>1300.774681953812</v>
+        <v>1303.141340349512</v>
       </c>
       <c r="D32" t="n">
-        <v>1071.493578330979</v>
+        <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>820.2507195870292</v>
+        <v>821.8667872941254</v>
       </c>
       <c r="F32" t="n">
-        <v>549.642390047143</v>
+        <v>550.8831624099371</v>
       </c>
       <c r="G32" t="n">
-        <v>277.0812646512745</v>
+        <v>277.9467416697664</v>
       </c>
       <c r="H32" t="n">
-        <v>87.80285139852646</v>
+        <v>88.29303307271701</v>
       </c>
       <c r="I32" t="n">
-        <v>58.52851375726598</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2134162431313</v>
+        <v>270.9604756060691</v>
       </c>
       <c r="K32" t="n">
-        <v>652.0401465009736</v>
+        <v>651.419378896961</v>
       </c>
       <c r="L32" t="n">
-        <v>1053.350580057547</v>
+        <v>999.3047519819072</v>
       </c>
       <c r="M32" t="n">
-        <v>1587.276104523695</v>
+        <v>1532.862449481104</v>
       </c>
       <c r="N32" t="n">
-        <v>2106.29382142447</v>
+        <v>2051.512339414929</v>
       </c>
       <c r="O32" t="n">
-        <v>2411.298405897304</v>
+        <v>2417.778376325624</v>
       </c>
       <c r="P32" t="n">
-        <v>2780.141660566417</v>
+        <v>2645.935272781678</v>
       </c>
       <c r="Q32" t="n">
-        <v>2874.573914252954</v>
+        <v>2880.686057714324</v>
       </c>
       <c r="R32" t="n">
-        <v>2926.425687863299</v>
+        <v>2932.170004357719</v>
       </c>
       <c r="S32" t="n">
-        <v>2882.739573643597</v>
+        <v>2888.108594793714</v>
       </c>
       <c r="T32" t="n">
-        <v>2801.923488524551</v>
+        <v>2806.917214330367</v>
       </c>
       <c r="U32" t="n">
-        <v>2690.581013388489</v>
+        <v>2695.199443850002</v>
       </c>
       <c r="V32" t="n">
-        <v>2497.144600434374</v>
+        <v>2501.387735551585</v>
       </c>
       <c r="W32" t="n">
-        <v>2278.152531441919</v>
+        <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
-        <v>2039.665252113356</v>
+        <v>2043.157796541962</v>
       </c>
       <c r="Y32" t="n">
-        <v>1789.666257839137</v>
+        <v>1792.783506923441</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>923.1286567992054</v>
+        <v>923.243543129094</v>
       </c>
       <c r="C33" t="n">
-        <v>761.4249840401601</v>
+        <v>761.5398703700487</v>
       </c>
       <c r="D33" t="n">
-        <v>622.5863470303722</v>
+        <v>622.7012333602607</v>
       </c>
       <c r="E33" t="n">
-        <v>475.5583370872434</v>
+        <v>475.673223417132</v>
       </c>
       <c r="F33" t="n">
-        <v>340.8645390371178</v>
+        <v>340.9794253670063</v>
       </c>
       <c r="G33" t="n">
-        <v>212.1360390604023</v>
+        <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
-        <v>126.910799067205</v>
+        <v>112.313067936989</v>
       </c>
       <c r="I33" t="n">
-        <v>58.52851375726598</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7826602903721</v>
+        <v>118.8975466202605</v>
       </c>
       <c r="K33" t="n">
-        <v>348.2732128505608</v>
+        <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.0950580206763</v>
+        <v>714.2099443505649</v>
       </c>
       <c r="M33" t="n">
-        <v>1199.128411530903</v>
+        <v>1199.243297860791</v>
       </c>
       <c r="N33" t="n">
-        <v>1710.394057654025</v>
+        <v>1710.508943983913</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.594008438176</v>
+        <v>2102.708894768065</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.689927713873</v>
+        <v>2404.804814043762</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.461557499467</v>
+        <v>2562.576443829356</v>
       </c>
       <c r="R33" t="n">
-        <v>2502.677288594413</v>
+        <v>2502.792174924301</v>
       </c>
       <c r="S33" t="n">
-        <v>2349.877801607153</v>
+        <v>2349.992687937042</v>
       </c>
       <c r="T33" t="n">
-        <v>2161.192697773139</v>
+        <v>2161.307584103027</v>
       </c>
       <c r="U33" t="n">
-        <v>1942.697905371449</v>
+        <v>1942.812791701337</v>
       </c>
       <c r="V33" t="n">
-        <v>1714.302282819783</v>
+        <v>1714.417169149671</v>
       </c>
       <c r="W33" t="n">
-        <v>1472.986414053093</v>
+        <v>1473.101300382981</v>
       </c>
       <c r="X33" t="n">
-        <v>1275.069425930887</v>
+        <v>1275.184312260776</v>
       </c>
       <c r="Y33" t="n">
-        <v>1082.548099580466</v>
+        <v>1082.662985910355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.4014558813201</v>
+        <v>156.1434096213235</v>
       </c>
       <c r="C34" t="n">
-        <v>127.3283474929439</v>
+        <v>129.6950058886452</v>
       </c>
       <c r="D34" t="n">
-        <v>117.7993154706501</v>
+        <v>119.7906785220493</v>
       </c>
       <c r="E34" t="n">
-        <v>109.3331623819125</v>
+        <v>110.9492300890095</v>
       </c>
       <c r="F34" t="n">
-        <v>100.3953685576331</v>
+        <v>101.6361409204279</v>
       </c>
       <c r="G34" t="n">
-        <v>75.01848107542661</v>
+        <v>75.88395809391932</v>
       </c>
       <c r="H34" t="n">
-        <v>59.18869700464394</v>
+        <v>59.67887867883449</v>
       </c>
       <c r="I34" t="n">
-        <v>58.52851375726598</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="J34" t="n">
-        <v>58.52851375726598</v>
+        <v>58.64340008715438</v>
       </c>
       <c r="K34" t="n">
-        <v>92.13270150190939</v>
+        <v>232.5661190779069</v>
       </c>
       <c r="L34" t="n">
-        <v>333.4261391152285</v>
+        <v>333.1731984781664</v>
       </c>
       <c r="M34" t="n">
-        <v>546.080757796921</v>
+        <v>451.1667046057681</v>
       </c>
       <c r="N34" t="n">
-        <v>664.5030995465214</v>
+        <v>569.5890463553685</v>
       </c>
       <c r="O34" t="n">
-        <v>762.9667460422111</v>
+        <v>731.6837365943651</v>
       </c>
       <c r="P34" t="n">
-        <v>825.9352297703489</v>
+        <v>934.9707515686119</v>
       </c>
       <c r="Q34" t="n">
-        <v>928.8511397298892</v>
+        <v>934.9707515686119</v>
       </c>
       <c r="R34" t="n">
-        <v>922.8722194942109</v>
+        <v>928.6165359886315</v>
       </c>
       <c r="S34" t="n">
-        <v>852.705318047842</v>
+        <v>858.0743391979605</v>
       </c>
       <c r="T34" t="n">
-        <v>763.0692260134643</v>
+        <v>768.0629518192807</v>
       </c>
       <c r="U34" t="n">
-        <v>619.4218476525077</v>
+        <v>624.0402781140219</v>
       </c>
       <c r="V34" t="n">
-        <v>502.2294043608739</v>
+        <v>506.4725394780859</v>
       </c>
       <c r="W34" t="n">
-        <v>359.6158640282165</v>
+        <v>363.4837038011264</v>
       </c>
       <c r="X34" t="n">
-        <v>271.9062610735358</v>
+        <v>275.3988055021435</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.4139634157564</v>
+        <v>196.531212500062</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6911,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C35" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478538</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614929</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791955</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409157</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I35" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>238.908164436265</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810478</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570264</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1384.640850310114</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S35" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W35" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X35" t="n">
         <v>1813.858934499875</v>
@@ -7002,13 +7002,13 @@
         <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="D37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="E37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="F37" t="n">
+        <v>52.21328648670345</v>
+      </c>
+      <c r="G37" t="n">
         <v>51.10067436208573</v>
       </c>
-      <c r="D37" t="n">
-        <v>65.54268635500836</v>
-      </c>
-      <c r="E37" t="n">
-        <v>81.02642599070933</v>
-      </c>
-      <c r="F37" t="n">
-        <v>96.04791054150586</v>
-      </c>
-      <c r="G37" t="n">
-        <v>94.93529841688813</v>
-      </c>
       <c r="H37" t="n">
-        <v>94.93529841688813</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>94.93529841688813</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>94.93529841688813</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>213.6092256136577</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>331.6027317412594</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>450.0250734908598</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>548.4887199865494</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146872</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>238.9081644362651</v>
@@ -7187,13 +7187,13 @@
         <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2067.976793470664</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
         <v>348.1493171020421</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E40" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>230.4180900440244</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4115961716261</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N40" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1395.236448442179</v>
+        <v>1390.64385017787</v>
       </c>
       <c r="C41" t="n">
-        <v>1176.34573544403</v>
+        <v>1170.889544703413</v>
       </c>
       <c r="D41" t="n">
-        <v>966.5648163402972</v>
+        <v>960.2450331233714</v>
       </c>
       <c r="E41" t="n">
-        <v>734.8221421154476</v>
+        <v>727.6387664222132</v>
       </c>
       <c r="F41" t="n">
-        <v>483.7139970946616</v>
+        <v>475.6670289251185</v>
       </c>
       <c r="G41" t="n">
-        <v>230.6530562178932</v>
+        <v>221.7424955720415</v>
       </c>
       <c r="H41" t="n">
-        <v>60.8748274842461</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>488.3871073426535</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>836.2724804275997</v>
+        <v>767.8477969281745</v>
       </c>
       <c r="M41" t="n">
-        <v>1229.511646680688</v>
+        <v>1320.039045255462</v>
       </c>
       <c r="N41" t="n">
-        <v>1607.843005368403</v>
+        <v>1857.322486017377</v>
       </c>
       <c r="O41" t="n">
-        <v>2072.646078901467</v>
+        <v>2162.327070490211</v>
       </c>
       <c r="P41" t="n">
-        <v>2300.80297535752</v>
+        <v>2390.483966946264</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2484.916220632801</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2530.847788403685</v>
+        <v>2529.984195927376</v>
       </c>
       <c r="T41" t="n">
-        <v>2469.53188780374</v>
+        <v>2467.804702851122</v>
       </c>
       <c r="U41" t="n">
-        <v>2377.689597186777</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V41" t="n">
-        <v>2203.753368751762</v>
+        <v>2274.076502970017</v>
       </c>
       <c r="W41" t="n">
-        <v>2004.261484278407</v>
+        <v>2073.721026020353</v>
       </c>
       <c r="X41" t="n">
-        <v>1856.735752046273</v>
+        <v>1853.870338734582</v>
       </c>
       <c r="Y41" t="n">
-        <v>1626.236942291155</v>
+        <v>1622.507936503154</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7530,10 +7530,10 @@
         <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.55030119446818</v>
+        <v>58.53719070767043</v>
       </c>
       <c r="C43" t="n">
-        <v>56.9773773251921</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D43" t="n">
-        <v>56.9773773251921</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E43" t="n">
-        <v>56.9773773251921</v>
+        <v>57.84096980150071</v>
       </c>
       <c r="F43" t="n">
-        <v>56.9773773251921</v>
+        <v>57.84096980150071</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>54.69803384148168</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>54.69803384148168</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>54.69803384148168</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
-        <v>88.30222158612509</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L43" t="n">
-        <v>188.9093009863846</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>306.9028071139863</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>502.3352673065488</v>
+        <v>505.0773036162502</v>
       </c>
       <c r="O43" t="n">
-        <v>600.7989138022384</v>
+        <v>603.5409501119399</v>
       </c>
       <c r="P43" t="n">
-        <v>663.7673975303762</v>
+        <v>666.5094338400777</v>
       </c>
       <c r="Q43" t="n">
-        <v>663.7673975303762</v>
+        <v>666.5094338400777</v>
       </c>
       <c r="R43" t="n">
-        <v>677.019588654558</v>
+        <v>678.9152179782294</v>
       </c>
       <c r="S43" t="n">
-        <v>626.3528717272892</v>
+        <v>627.3849085746519</v>
       </c>
       <c r="T43" t="n">
-        <v>556.2169642120117</v>
+        <v>556.3854085830658</v>
       </c>
       <c r="U43" t="n">
-        <v>432.0697703701553</v>
+        <v>431.3746222649007</v>
       </c>
       <c r="V43" t="n">
-        <v>334.3775115976215</v>
+        <v>332.8187710160583</v>
       </c>
       <c r="W43" t="n">
-        <v>211.2641557840643</v>
+        <v>208.8418227261924</v>
       </c>
       <c r="X43" t="n">
-        <v>143.0547373484837</v>
+        <v>139.7688118143031</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.06262420980437</v>
+        <v>79.91310619931525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1395.236448442178</v>
+        <v>1316.866346054381</v>
       </c>
       <c r="C44" t="n">
-        <v>1176.345735444029</v>
+        <v>1097.112040579923</v>
       </c>
       <c r="D44" t="n">
-        <v>966.5648163402964</v>
+        <v>886.4675289998816</v>
       </c>
       <c r="E44" t="n">
-        <v>734.8221421154468</v>
+        <v>653.8612622987234</v>
       </c>
       <c r="F44" t="n">
-        <v>483.7139970946607</v>
+        <v>401.8895248016287</v>
       </c>
       <c r="G44" t="n">
-        <v>230.6530562178932</v>
+        <v>232.3802411705105</v>
       </c>
       <c r="H44" t="n">
-        <v>60.87482748424613</v>
+        <v>61.73841996055473</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>282.897707695121</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>523.0380797399038</v>
+        <v>490.0799213147138</v>
       </c>
       <c r="L44" t="n">
-        <v>870.9234528248501</v>
+        <v>837.96529439966</v>
       </c>
       <c r="M44" t="n">
-        <v>1264.162619077938</v>
+        <v>1231.204460652748</v>
       </c>
       <c r="N44" t="n">
-        <v>1642.493977765654</v>
+        <v>1609.535819340464</v>
       </c>
       <c r="O44" t="n">
-        <v>2107.297051298717</v>
+        <v>1914.540403813297</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.637559960234</v>
+        <v>2301.64938234355</v>
       </c>
       <c r="Q44" t="n">
-        <v>2484.069813646771</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2529.984195927376</v>
       </c>
       <c r="T44" t="n">
-        <v>2540.993250381068</v>
+        <v>2467.804702851122</v>
       </c>
       <c r="U44" t="n">
-        <v>2449.150959764105</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V44" t="n">
-        <v>2275.21473132909</v>
+        <v>2200.298998846527</v>
       </c>
       <c r="W44" t="n">
-        <v>2075.722846855735</v>
+        <v>1999.943521896864</v>
       </c>
       <c r="X44" t="n">
-        <v>1856.735752046272</v>
+        <v>1780.092834611092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1626.236942291153</v>
+        <v>1548.730432379665</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7731,7 +7731,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.55030119446823</v>
+        <v>65.27748614708543</v>
       </c>
       <c r="C46" t="n">
-        <v>56.97737732519213</v>
+        <v>57.84096980150073</v>
       </c>
       <c r="D46" t="n">
-        <v>56.97737732519213</v>
+        <v>57.84096980150073</v>
       </c>
       <c r="E46" t="n">
-        <v>56.97737732519213</v>
+        <v>57.84096980150073</v>
       </c>
       <c r="F46" t="n">
-        <v>56.97737732519213</v>
+        <v>57.84096980150073</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7813,43 +7813,43 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>397.1651166811306</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>515.587458430731</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>614.0511049264206</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>677.0195886545584</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>677.0195886545584</v>
+        <v>673.2497292794926</v>
       </c>
       <c r="R46" t="n">
-        <v>677.0195886545584</v>
+        <v>685.6555134176443</v>
       </c>
       <c r="S46" t="n">
-        <v>626.3528717272897</v>
+        <v>634.1252040140669</v>
       </c>
       <c r="T46" t="n">
-        <v>556.216964212012</v>
+        <v>563.1257040224807</v>
       </c>
       <c r="U46" t="n">
-        <v>432.0697703701555</v>
+        <v>438.1149177043156</v>
       </c>
       <c r="V46" t="n">
-        <v>334.3775115976217</v>
+        <v>339.5590664554733</v>
       </c>
       <c r="W46" t="n">
-        <v>211.2641557840644</v>
+        <v>215.5821181656074</v>
       </c>
       <c r="X46" t="n">
-        <v>143.0547373484838</v>
+        <v>146.5091072537182</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.06262420980445</v>
+        <v>86.65340163873024</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>316.2567762648465</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>436.1151705393662</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8061,19 +8061,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>605.4670827722673</v>
+        <v>605.0346779723779</v>
       </c>
       <c r="O3" t="n">
-        <v>280.4772886465925</v>
+        <v>343.5671672635043</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8219,7 +8219,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>542.9595789155856</v>
+        <v>436.1151705393662</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>408.5921753801455</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,25 +8292,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>249.2689789826789</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>605.4670827722673</v>
+        <v>605.0346779723779</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>307.6902692102016</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,13 +8538,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8772,7 +8772,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934104</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.5041463600306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455328</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.5041463600306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9246,7 +9246,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934104</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>332.4052715353452</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>262.2084804197804</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>608.0978263213979</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3588954737899</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455324</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.684255572312</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
-        <v>149.3641288681771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>36.90620911627812</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655129</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.63424829224823e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>123.0074391733825</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774091</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>189.5363253733606</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24443,13 +24443,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>116.2860398287296</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774086</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>42.45996775436515</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>46.14590749557269</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>71.45331773456822</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.5313681424843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25685,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>73.03972908225478</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>70.74674895155621</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.57109722473919</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.94407040359641</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>46.80267854795888</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680877.3645308375</v>
+        <v>681309.8956051561</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680877.3645308375</v>
+        <v>681309.8956051562</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723045.7629105845</v>
+        <v>723608.5295057476</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>723045.7629105845</v>
+        <v>723608.5295057476</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742942.8037956968</v>
+        <v>741947.5061262152</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742942.8037956969</v>
+        <v>741947.5061262152</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>594908.6468829907</v>
       </c>
       <c r="C2" t="n">
+        <v>594908.646882991</v>
+      </c>
+      <c r="D2" t="n">
+        <v>594908.6468829907</v>
+      </c>
+      <c r="E2" t="n">
+        <v>541554.0195835858</v>
+      </c>
+      <c r="F2" t="n">
+        <v>541554.0195835853</v>
+      </c>
+      <c r="G2" t="n">
+        <v>594908.6468829905</v>
+      </c>
+      <c r="H2" t="n">
         <v>594908.6468829908</v>
       </c>
-      <c r="D2" t="n">
-        <v>594908.6468829911</v>
-      </c>
-      <c r="E2" t="n">
-        <v>541210.2128322043</v>
-      </c>
-      <c r="F2" t="n">
-        <v>541210.2128322042</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>594908.6468829906</v>
       </c>
-      <c r="H2" t="n">
-        <v>594908.6468829907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>594908.6468829904</v>
-      </c>
       <c r="J2" t="n">
-        <v>574728.6833391831</v>
+        <v>575176.0106327743</v>
       </c>
       <c r="K2" t="n">
-        <v>574728.683339183</v>
+        <v>575176.010632774</v>
       </c>
       <c r="L2" t="n">
-        <v>594908.6468829917</v>
+        <v>594908.6468829912</v>
       </c>
       <c r="M2" t="n">
         <v>594908.6468829906</v>
@@ -26350,10 +26350,10 @@
         <v>594908.6468829906</v>
       </c>
       <c r="O2" t="n">
-        <v>590544.27994017</v>
+        <v>589753.1458951974</v>
       </c>
       <c r="P2" t="n">
-        <v>590544.2799401701</v>
+        <v>589753.1458951973</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167143.2469598569</v>
+        <v>166998.3381661036</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8247.617757256783</v>
+        <v>8381.935660246398</v>
       </c>
       <c r="E3" t="n">
-        <v>118466.5002932436</v>
+        <v>118895.2819258113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46445.55394251715</v>
+        <v>46127.08903606658</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211425.8889989693</v>
+        <v>211744.3539054199</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>69387.36756670543</v>
+        <v>68771.66874756754</v>
       </c>
       <c r="M3" t="n">
-        <v>19217.30608321029</v>
+        <v>19514.5399958976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40525.4185199668</v>
+        <v>40159.91818518096</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192931.5734648272</v>
+        <v>193048.1106246011</v>
       </c>
       <c r="C4" t="n">
-        <v>192931.5734648272</v>
+        <v>193048.1106246011</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>138157.8180177009</v>
+        <v>138282.3314920318</v>
       </c>
       <c r="F4" t="n">
-        <v>138157.8180177009</v>
+        <v>138282.3314920319</v>
       </c>
       <c r="G4" t="n">
-        <v>177455.3864857307</v>
+        <v>177327.6980802156</v>
       </c>
       <c r="H4" t="n">
-        <v>177455.3864857308</v>
+        <v>177327.6980802156</v>
       </c>
       <c r="I4" t="n">
-        <v>177455.3864857308</v>
+        <v>177327.6980802156</v>
       </c>
       <c r="J4" t="n">
-        <v>161480.5065556286</v>
+        <v>161817.5237554868</v>
       </c>
       <c r="K4" t="n">
-        <v>161480.5065556286</v>
+        <v>161817.5237554867</v>
       </c>
       <c r="L4" t="n">
-        <v>176090.4420391663</v>
+        <v>176098.1338278879</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>172423.7297159077</v>
+        <v>171843.7722931107</v>
       </c>
       <c r="P4" t="n">
-        <v>172423.7297159077</v>
+        <v>171843.7722931107</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63951.71805563718</v>
+        <v>63925.42784380392</v>
       </c>
       <c r="C5" t="n">
-        <v>63951.71805563718</v>
+        <v>63925.42784380392</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47119.553161358</v>
+        <v>47206.86677207318</v>
       </c>
       <c r="F5" t="n">
-        <v>47119.553161358</v>
+        <v>47206.86677207318</v>
       </c>
       <c r="G5" t="n">
-        <v>52000.34225434984</v>
+        <v>52054.18958228953</v>
       </c>
       <c r="H5" t="n">
-        <v>52000.34225434985</v>
+        <v>52054.18958228953</v>
       </c>
       <c r="I5" t="n">
-        <v>52000.34225434985</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="J5" t="n">
-        <v>55631.94762090596</v>
+        <v>55745.55144345442</v>
       </c>
       <c r="K5" t="n">
-        <v>55631.94762090596</v>
+        <v>55745.55144345442</v>
       </c>
       <c r="L5" t="n">
-        <v>56428.5002015966</v>
+        <v>56484.57861505464</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52406.30966347248</v>
+        <v>52334.43432114059</v>
       </c>
       <c r="P5" t="n">
-        <v>52406.30966347248</v>
+        <v>52334.4343211406</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170882.1084026694</v>
+        <v>170936.7702484821</v>
       </c>
       <c r="C6" t="n">
-        <v>338025.3553625264</v>
+        <v>337935.1084145859</v>
       </c>
       <c r="D6" t="n">
-        <v>335319.2351555297</v>
+        <v>335184.9172525398</v>
       </c>
       <c r="E6" t="n">
-        <v>237466.3413599019</v>
+        <v>236997.4276927037</v>
       </c>
       <c r="F6" t="n">
-        <v>355932.8416531453</v>
+        <v>355892.7096185145</v>
       </c>
       <c r="G6" t="n">
-        <v>319007.3642003929</v>
+        <v>319399.6701844188</v>
       </c>
       <c r="H6" t="n">
-        <v>365452.9181429101</v>
+        <v>365526.7592204857</v>
       </c>
       <c r="I6" t="n">
-        <v>365452.9181429098</v>
+        <v>365526.7592204855</v>
       </c>
       <c r="J6" t="n">
-        <v>146190.3401636792</v>
+        <v>145804.9278630899</v>
       </c>
       <c r="K6" t="n">
-        <v>357616.2291626484</v>
+        <v>357549.2817685096</v>
       </c>
       <c r="L6" t="n">
-        <v>293002.3370755233</v>
+        <v>293554.265692481</v>
       </c>
       <c r="M6" t="n">
-        <v>347265.4033668983</v>
+        <v>346968.169454211</v>
       </c>
       <c r="N6" t="n">
         <v>366482.7094501086</v>
       </c>
       <c r="O6" t="n">
-        <v>325188.8220408231</v>
+        <v>325398.3904474174</v>
       </c>
       <c r="P6" t="n">
-        <v>365714.24056079</v>
+        <v>365558.3086325983</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="H2" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="I2" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="P2" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="3">
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="C4" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>618.1511937047434</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="F4" t="n">
-        <v>618.1511937047434</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="G4" t="n">
-        <v>618.1511937047434</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="H4" t="n">
-        <v>618.1511937047436</v>
+        <v>619.5872728283483</v>
       </c>
       <c r="I4" t="n">
-        <v>618.1511937047436</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="J4" t="n">
-        <v>758.1576815262561</v>
+        <v>760.0261654497505</v>
       </c>
       <c r="K4" t="n">
-        <v>758.1576815262561</v>
+        <v>760.0261654497504</v>
       </c>
       <c r="L4" t="n">
-        <v>731.6064219658248</v>
+        <v>733.0425010894297</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>58.05694242814644</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.37322308006225</v>
+        <v>55.77130421312549</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.73420945838178</v>
+        <v>85.96458593445944</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02163260401286</v>
+        <v>24.393174994872</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.6567731499585</v>
+        <v>50.1998977314762</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.55125956043133</v>
+        <v>26.98366436032063</v>
       </c>
       <c r="E4" t="n">
-        <v>92.84799243975306</v>
+        <v>94.284071563358</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58.05694242814644</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.37322308006225</v>
+        <v>55.77130421312549</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.55125956043133</v>
+        <v>26.98366436032063</v>
       </c>
       <c r="M4" t="n">
-        <v>92.84799243975306</v>
+        <v>94.284071563358</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>255.8875252236631</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>75.31610400479497</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27461,13 +27461,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.1349064121667</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>17.03987515949615</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27582,7 +27582,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>125.4210551137291</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27591,7 +27591,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27600,10 +27600,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>171.5658690338163</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.6731064880849</v>
+        <v>227.0184843573979</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>180.5195107796941</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>24.53174313732401</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.7359088872865</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27828,10 +27828,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>244.6475751830576</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>197.0818388199037</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27904,22 +27904,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>15.65188885505893</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>84.317986756263</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>93.47784511364529</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28056,7 +28056,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28071,10 +28071,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>133.5226877096454</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28114,22 +28114,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>9.338070422798182</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.651777327312118</v>
       </c>
       <c r="Q11" t="n">
         <v>113.4301655082087</v>
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8395896040753</v>
+        <v>21.26645374118944</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28351,16 +28351,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>27.35003919641588</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O14" t="n">
         <v>113.4301655082087</v>
@@ -28369,7 +28369,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>33.03633229190174</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.26645374118937</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.53805206091501</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28561,43 +28561,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="D17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="E17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="F17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="G17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="H17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.14877520994442</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="L17" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,31 +28606,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.66631984833143</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.53805206091496</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>21.26645374118937</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.249310340277432</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="D20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="E20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="F20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="G20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="H20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="I20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>24.26823871526935</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>120.8806788490497</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="S20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.96491619802892</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>94.53805206091396</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29004,28 +29004,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="D23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="E23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="F23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="G23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="H23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="I23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>24.26823871526943</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>171.4871079363552</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>31.14877520994393</v>
       </c>
       <c r="R23" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>29.77848998202531</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>94.53805206091393</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>151.2758739120429</v>
       </c>
       <c r="S25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="T25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="U25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="V25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="W25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="X25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.4871079363552</v>
+        <v>171.0890268032919</v>
       </c>
     </row>
     <row r="26">
@@ -29308,13 +29308,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
-        <v>104.30023878976</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837982</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550349</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29533,10 +29533,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>104.3002387897596</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837976</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="L32" t="n">
-        <v>53.96470754709833</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>61.88025498773868</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1074325384441</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>14.56549128550357</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="J34" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="L34" t="n">
-        <v>142.1074325384441</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>95.61728540817251</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>64.27378155889585</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1074325384441</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1074325384441</v>
+        <v>141.7358901475849</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934947</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,13 +30147,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30168,10 +30168,10 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>1.284368163872038</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>28.58311525926163</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30259,10 +30259,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30362,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,13 +30402,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>91.55439212797992</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="E41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="F41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="G41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="I41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>126.4116329929084</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>57.29579107429709</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="O41" t="n">
-        <v>161.4126152123532</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>161.4126152123532</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="S41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y41" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>157.2973033280267</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H43" t="n">
-        <v>161.4126152123532</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>77.7879984272344</v>
+        <v>84.19142851723178</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="S43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="44">
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="F44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="G44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="I44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="J44" t="n">
-        <v>161.4126152123532</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>128.1215460959996</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>161.4126152123532</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>54.73092141966049</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="R44" t="n">
-        <v>161.4126152123532</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y44" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>94.80774651165677</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>129.1517756818118</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="S46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.4126152123532</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
   </sheetData>
@@ -34699,10 +34699,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>137.4337722907998</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>244.5549583762516</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34781,19 +34781,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="O3" t="n">
-        <v>164.6178400354814</v>
+        <v>227.7077186523932</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34939,7 +34939,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>351.3993667524709</v>
+        <v>244.5549583762516</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>220.715366328989</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>136.6935454115311</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.751941704559</v>
+        <v>498.3195369046697</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8360631860583</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,13 +35258,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35410,10 +35410,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>251.9041027912656</v>
       </c>
       <c r="L11" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35425,13 +35425,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>234.113288899083</v>
+        <v>343.8916770799796</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430945</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222626</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.76895491513807</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823972</v>
+        <v>53.9734993082397</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536085</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>409.5029267597651</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
         <v>421.5156043696571</v>
@@ -35665,7 +35665,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>128.4224471267876</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778245</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.76895491513807</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>103.8745775057077</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>413.6550591717594</v>
       </c>
       <c r="L17" t="n">
-        <v>522.8864746888261</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>553.6399954997044</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,7 +35902,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.0524346832173</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222626</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>223.5510655112019</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6185270197983</v>
+        <v>122.8678373600758</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.398081133063215</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>266.8342710837368</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>522.8864746888261</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>351.3421904208206</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.873222771241</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>81.35712316418676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.2123112531137</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>501.3826852536896</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.398081133063215</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>244.2129102321184</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>375.6676054677404</v>
+        <v>522.4883935557629</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>553.2419143666411</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>401.9486195081261</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>126.5348900448298</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>348.7834619026421</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778241</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.249310340277364</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>486.4531263531092</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696571</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>342.1601917555691</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>177.0260410855229</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766761</v>
+        <v>354.264712552265</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.8332348342074</v>
+        <v>214.4616924433482</v>
       </c>
       <c r="K32" t="n">
-        <v>384.6734649069115</v>
+        <v>384.3019225160524</v>
       </c>
       <c r="L32" t="n">
-        <v>405.3640742995693</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>539.3187115819672</v>
+        <v>538.9471691911081</v>
       </c>
       <c r="N32" t="n">
-        <v>524.2603201017932</v>
+        <v>523.8887777109342</v>
       </c>
       <c r="O32" t="n">
-        <v>308.0854388614484</v>
+        <v>369.9656938491871</v>
       </c>
       <c r="P32" t="n">
-        <v>372.568944110215</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>237.1220049824708</v>
       </c>
       <c r="R32" t="n">
-        <v>52.37552889933889</v>
+        <v>52.00398650847976</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>175.6795141320732</v>
       </c>
       <c r="L34" t="n">
-        <v>243.7307450639587</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>214.8026451330227</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>163.7320103424208</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>205.3404191659059</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.9554646055962</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>189.7045354284639</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37327,7 +37327,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>35.22799214836034</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>130.2064277847763</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.09772592801093</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37780,28 +37780,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>368.9776653613758</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>408.695157826768</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>557.7689377043308</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>542.7105462241568</v>
       </c>
       <c r="O41" t="n">
-        <v>469.4980540738017</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>256.798730047239</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>70.82575502170246</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6.808379231732309</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.633696443834282</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>197.4065254470327</v>
+        <v>203.8099555370301</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.38605164058762</v>
+        <v>12.53109508904208</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>234.1384175081164</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>370.687578464467</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>469.4980540738016</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>285.1924329914314</v>
+        <v>391.0191702325786</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>255.9437734956935</v>
       </c>
       <c r="R44" t="n">
-        <v>71.68071157324798</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38181,7 +38181,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>213.993106236507</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
@@ -38193,10 +38193,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>90.99980774896396</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.53109508904208</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
